--- a/검수/AC000120253047CE9_자기보고_응답.xlsx
+++ b/검수/AC000120253047CE9_자기보고_응답.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
